--- a/BNTX.xlsx
+++ b/BNTX.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C77740-9ED7-43AC-B22F-82C86AF7A347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6825BE-440A-45F8-B763-609328B5025A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14505" windowHeight="15585" activeTab="1" xr2:uid="{12D1FC54-38F9-424A-830B-7D36C42D2BCE}"/>
+    <workbookView xWindow="645" yWindow="1095" windowWidth="22200" windowHeight="14685" activeTab="4" xr2:uid="{12D1FC54-38F9-424A-830B-7D36C42D2BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>Price</t>
   </si>
@@ -135,9 +135,6 @@
     <t>BNT327</t>
   </si>
   <si>
-    <t>BMY</t>
-  </si>
-  <si>
     <t>mBC</t>
   </si>
   <si>
@@ -343,13 +340,37 @@
   </si>
   <si>
     <t>CFO: Ramon Zapata</t>
+  </si>
+  <si>
+    <t>probablity</t>
+  </si>
+  <si>
+    <t>Sep 8th: Ph3 ROSETTA early DOR and PFS data</t>
+  </si>
+  <si>
+    <t>BNT327 (pumitamig)</t>
+  </si>
+  <si>
+    <t>pumitamig</t>
+  </si>
+  <si>
+    <t>Preclinical</t>
+  </si>
+  <si>
+    <t>Biothesus developed</t>
+  </si>
+  <si>
+    <t>BMY/Biothesus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -376,12 +397,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -492,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -500,10 +515,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -531,11 +542,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1002,7 +1012,7 @@
   <dimension ref="B2:L24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1018,22 +1028,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
@@ -1045,11 +1055,8 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="G3" s="5"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -1063,11 +1070,8 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="1"/>
+      <c r="G4" s="5"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
@@ -1078,11 +1082,8 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="7"/>
+      <c r="D5" s="1"/>
+      <c r="G5" s="5"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -1096,11 +1097,8 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="1"/>
+      <c r="G6" s="5"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -1113,11 +1111,8 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="1"/>
+      <c r="G7" s="5"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
@@ -1127,34 +1122,34 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="14" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="J9" t="s">
         <v>18</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="J9" t="s">
-        <v>19</v>
       </c>
       <c r="K9">
         <v>1.17</v>
@@ -1162,118 +1157,116 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="7"/>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="5"/>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="5"/>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="27">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="22">
         <v>1</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="5"/>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7"/>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="5"/>
       <c r="J14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="9"/>
+      <c r="J15" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="11"/>
-      <c r="J15" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D16" s="1"/>
       <c r="J16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
@@ -1295,6 +1288,9 @@
       <c r="D24" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" location="'BNT327'!A1" display="BNT327 (pumitamig)" xr:uid="{292625CD-F85E-4CD3-A831-B29D008540B6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1303,11 +1299,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8F686A-A275-4A62-B7E2-E99B1B3B7D26}">
   <dimension ref="A1:DL30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
+      <selection pane="bottomRight" activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1318,104 +1314,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>20</v>
+      <c r="A1" s="20" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:116" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="23">
+      <c r="L2" s="21">
         <v>2023</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="21">
         <f>L2+1</f>
         <v>2024</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="21">
         <f t="shared" ref="N2:S2" si="0">M2+1</f>
         <v>2025</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="21">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="P2" s="23">
+      <c r="P2" s="21">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="Q2" s="23">
+      <c r="Q2" s="21">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="R2" s="23">
+      <c r="R2" s="21">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="S2" s="23">
+      <c r="S2" s="21">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:116" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:116" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="21">
+      <c r="B3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="19">
         <v>2000</v>
       </c>
-      <c r="O3" s="21">
-        <f>N3*1.04</f>
-        <v>2080</v>
-      </c>
-      <c r="P3" s="21">
+      <c r="O3" s="19">
+        <v>0</v>
+      </c>
+      <c r="P3" s="19">
         <f t="shared" ref="P3:S3" si="1">O3*1.04</f>
-        <v>2163.2000000000003</v>
-      </c>
-      <c r="Q3" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19">
         <f t="shared" si="1"/>
-        <v>2249.7280000000005</v>
-      </c>
-      <c r="R3" s="21">
+        <v>0</v>
+      </c>
+      <c r="R3" s="19">
         <f t="shared" si="1"/>
-        <v>2339.7171200000007</v>
-      </c>
-      <c r="S3" s="21">
+        <v>0</v>
+      </c>
+      <c r="S3" s="19">
         <f t="shared" si="1"/>
-        <v>2433.3058048000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:116" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:116" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N5" s="3">
         <f>N3-N4</f>
@@ -1423,28 +1418,28 @@
       </c>
       <c r="O5" s="3">
         <f t="shared" ref="O5:S5" si="2">O3-O4</f>
-        <v>2080</v>
+        <v>0</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="2"/>
-        <v>2163.2000000000003</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="2"/>
-        <v>2249.7280000000005</v>
+        <v>0</v>
       </c>
       <c r="R5" s="3">
         <f t="shared" si="2"/>
-        <v>2339.7171200000007</v>
+        <v>0</v>
       </c>
       <c r="S5" s="3">
         <f t="shared" si="2"/>
-        <v>2433.3058048000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:116" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N6" s="3">
         <v>2700</v>
@@ -1452,7 +1447,7 @@
     </row>
     <row r="7" spans="1:116" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7" s="3">
         <v>700</v>
@@ -1480,7 +1475,7 @@
     </row>
     <row r="8" spans="1:116" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N8" s="3">
         <f>SUM(N6:N7)</f>
@@ -1509,7 +1504,7 @@
     </row>
     <row r="9" spans="1:116" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N9" s="3">
         <f>N5-N8</f>
@@ -1517,33 +1512,33 @@
       </c>
       <c r="O9" s="3">
         <f t="shared" ref="O9:S9" si="5">O5-O8</f>
-        <v>1366</v>
+        <v>-714</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="5"/>
-        <v>1434.9200000000003</v>
+        <v>-728.28</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="5"/>
-        <v>1506.8824000000004</v>
+        <v>-742.84559999999999</v>
       </c>
       <c r="R9" s="3">
         <f t="shared" si="5"/>
-        <v>1582.0146080000009</v>
+        <v>-757.70251199999996</v>
       </c>
       <c r="S9" s="3">
         <f t="shared" si="5"/>
-        <v>1660.4492425600006</v>
+        <v>-772.85656224000002</v>
       </c>
     </row>
     <row r="10" spans="1:116" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:116" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N11" s="3">
         <f>N9+N10</f>
@@ -1551,33 +1546,33 @@
       </c>
       <c r="O11" s="3">
         <f t="shared" ref="O11:S11" si="6">O9+O10</f>
-        <v>1366</v>
+        <v>-714</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="6"/>
-        <v>1434.9200000000003</v>
+        <v>-728.28</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="6"/>
-        <v>1506.8824000000004</v>
+        <v>-742.84559999999999</v>
       </c>
       <c r="R11" s="3">
         <f t="shared" si="6"/>
-        <v>1582.0146080000009</v>
+        <v>-757.70251199999996</v>
       </c>
       <c r="S11" s="3">
         <f t="shared" si="6"/>
-        <v>1660.4492425600006</v>
+        <v>-772.85656224000002</v>
       </c>
     </row>
     <row r="12" spans="1:116" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:116" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N13" s="3">
         <f>N11-N12</f>
@@ -1585,411 +1580,411 @@
       </c>
       <c r="O13" s="3">
         <f t="shared" ref="O13:S13" si="7">O11-O12</f>
-        <v>1366</v>
+        <v>-714</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" si="7"/>
-        <v>1434.9200000000003</v>
+        <v>-728.28</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="7"/>
-        <v>1506.8824000000004</v>
+        <v>-742.84559999999999</v>
       </c>
       <c r="R13" s="3">
         <f t="shared" si="7"/>
-        <v>1582.0146080000009</v>
+        <v>-757.70251199999996</v>
       </c>
       <c r="S13" s="3">
         <f t="shared" si="7"/>
-        <v>1660.4492425600006</v>
+        <v>-772.85656224000002</v>
       </c>
       <c r="T13" s="3">
-        <f>S13*(1+$V$16)</f>
-        <v>1643.8447501344006</v>
+        <f t="shared" ref="T13:AY13" si="8">S13*(1+$V$16)</f>
+        <v>-765.12799661760005</v>
       </c>
       <c r="U13" s="3">
-        <f>T13*(1+$V$16)</f>
-        <v>1627.4063026330566</v>
+        <f t="shared" si="8"/>
+        <v>-757.476716651424</v>
       </c>
       <c r="V13" s="3">
-        <f>U13*(1+$V$16)</f>
-        <v>1611.132239606726</v>
+        <f t="shared" si="8"/>
+        <v>-749.90194948490978</v>
       </c>
       <c r="W13" s="3">
-        <f>V13*(1+$V$16)</f>
-        <v>1595.0209172106588</v>
+        <f t="shared" si="8"/>
+        <v>-742.40292999006067</v>
       </c>
       <c r="X13" s="3">
-        <f>W13*(1+$V$16)</f>
-        <v>1579.0707080385523</v>
+        <f t="shared" si="8"/>
+        <v>-734.97890069016</v>
       </c>
       <c r="Y13" s="3">
-        <f>X13*(1+$V$16)</f>
-        <v>1563.2800009581667</v>
+        <f t="shared" si="8"/>
+        <v>-727.62911168325843</v>
       </c>
       <c r="Z13" s="3">
-        <f>Y13*(1+$V$16)</f>
-        <v>1547.6472009485851</v>
+        <f t="shared" si="8"/>
+        <v>-720.35282056642586</v>
       </c>
       <c r="AA13" s="3">
-        <f>Z13*(1+$V$16)</f>
-        <v>1532.1707289390993</v>
+        <f t="shared" si="8"/>
+        <v>-713.14929236076159</v>
       </c>
       <c r="AB13" s="3">
-        <f>AA13*(1+$V$16)</f>
-        <v>1516.8490216497082</v>
+        <f t="shared" si="8"/>
+        <v>-706.01779943715394</v>
       </c>
       <c r="AC13" s="3">
-        <f>AB13*(1+$V$16)</f>
-        <v>1501.6805314332112</v>
+        <f t="shared" si="8"/>
+        <v>-698.9576214427824</v>
       </c>
       <c r="AD13" s="3">
-        <f>AC13*(1+$V$16)</f>
-        <v>1486.6637261188791</v>
+        <f t="shared" si="8"/>
+        <v>-691.96804522835453</v>
       </c>
       <c r="AE13" s="3">
-        <f>AD13*(1+$V$16)</f>
-        <v>1471.7970888576904</v>
+        <f t="shared" si="8"/>
+        <v>-685.04836477607103</v>
       </c>
       <c r="AF13" s="3">
-        <f>AE13*(1+$V$16)</f>
-        <v>1457.0791179691134</v>
+        <f t="shared" si="8"/>
+        <v>-678.19788112831031</v>
       </c>
       <c r="AG13" s="3">
-        <f>AF13*(1+$V$16)</f>
-        <v>1442.5083267894222</v>
+        <f t="shared" si="8"/>
+        <v>-671.41590231702719</v>
       </c>
       <c r="AH13" s="3">
-        <f>AG13*(1+$V$16)</f>
-        <v>1428.0832435215279</v>
+        <f t="shared" si="8"/>
+        <v>-664.70174329385691</v>
       </c>
       <c r="AI13" s="3">
-        <f>AH13*(1+$V$16)</f>
-        <v>1413.8024110863128</v>
+        <f t="shared" si="8"/>
+        <v>-658.05472586091832</v>
       </c>
       <c r="AJ13" s="3">
-        <f>AI13*(1+$V$16)</f>
-        <v>1399.6643869754496</v>
+        <f t="shared" si="8"/>
+        <v>-651.47417860230917</v>
       </c>
       <c r="AK13" s="3">
-        <f>AJ13*(1+$V$16)</f>
-        <v>1385.6677431056951</v>
+        <f t="shared" si="8"/>
+        <v>-644.95943681628603</v>
       </c>
       <c r="AL13" s="3">
-        <f>AK13*(1+$V$16)</f>
-        <v>1371.811065674638</v>
+        <f t="shared" si="8"/>
+        <v>-638.50984244812321</v>
       </c>
       <c r="AM13" s="3">
-        <f>AL13*(1+$V$16)</f>
-        <v>1358.0929550178917</v>
+        <f t="shared" si="8"/>
+        <v>-632.12474402364194</v>
       </c>
       <c r="AN13" s="3">
-        <f>AM13*(1+$V$16)</f>
-        <v>1344.5120254677126</v>
+        <f t="shared" si="8"/>
+        <v>-625.80349658340549</v>
       </c>
       <c r="AO13" s="3">
-        <f>AN13*(1+$V$16)</f>
-        <v>1331.0669052130354</v>
+        <f t="shared" si="8"/>
+        <v>-619.54546161757139</v>
       </c>
       <c r="AP13" s="3">
-        <f>AO13*(1+$V$16)</f>
-        <v>1317.756236160905</v>
+        <f t="shared" si="8"/>
+        <v>-613.35000700139562</v>
       </c>
       <c r="AQ13" s="3">
-        <f>AP13*(1+$V$16)</f>
-        <v>1304.578673799296</v>
+        <f t="shared" si="8"/>
+        <v>-607.21650693138167</v>
       </c>
       <c r="AR13" s="3">
-        <f>AQ13*(1+$V$16)</f>
-        <v>1291.532887061303</v>
+        <f t="shared" si="8"/>
+        <v>-601.1443418620679</v>
       </c>
       <c r="AS13" s="3">
-        <f>AR13*(1+$V$16)</f>
-        <v>1278.61755819069</v>
+        <f t="shared" si="8"/>
+        <v>-595.13289844344717</v>
       </c>
       <c r="AT13" s="3">
-        <f>AS13*(1+$V$16)</f>
-        <v>1265.8313826087831</v>
+        <f t="shared" si="8"/>
+        <v>-589.18156945901274</v>
       </c>
       <c r="AU13" s="3">
-        <f>AT13*(1+$V$16)</f>
-        <v>1253.1730687826953</v>
+        <f t="shared" si="8"/>
+        <v>-583.28975376442258</v>
       </c>
       <c r="AV13" s="3">
-        <f>AU13*(1+$V$16)</f>
-        <v>1240.6413380948684</v>
+        <f t="shared" si="8"/>
+        <v>-577.45685622677831</v>
       </c>
       <c r="AW13" s="3">
-        <f>AV13*(1+$V$16)</f>
-        <v>1228.2349247139198</v>
+        <f t="shared" si="8"/>
+        <v>-571.68228766451057</v>
       </c>
       <c r="AX13" s="3">
-        <f>AW13*(1+$V$16)</f>
-        <v>1215.9525754667807</v>
+        <f t="shared" si="8"/>
+        <v>-565.96546478786547</v>
       </c>
       <c r="AY13" s="3">
-        <f>AX13*(1+$V$16)</f>
-        <v>1203.7930497121129</v>
+        <f t="shared" si="8"/>
+        <v>-560.30581013998676</v>
       </c>
       <c r="AZ13" s="3">
-        <f>AY13*(1+$V$16)</f>
-        <v>1191.7551192149917</v>
+        <f t="shared" ref="AZ13:CE13" si="9">AY13*(1+$V$16)</f>
+        <v>-554.70275203858694</v>
       </c>
       <c r="BA13" s="3">
-        <f>AZ13*(1+$V$16)</f>
-        <v>1179.8375680228419</v>
+        <f t="shared" si="9"/>
+        <v>-549.15572451820105</v>
       </c>
       <c r="BB13" s="3">
-        <f>BA13*(1+$V$16)</f>
-        <v>1168.0391923426134</v>
+        <f t="shared" si="9"/>
+        <v>-543.66416727301907</v>
       </c>
       <c r="BC13" s="3">
-        <f>BB13*(1+$V$16)</f>
-        <v>1156.3588004191872</v>
+        <f t="shared" si="9"/>
+        <v>-538.22752560028891</v>
       </c>
       <c r="BD13" s="3">
-        <f>BC13*(1+$V$16)</f>
-        <v>1144.7952124149954</v>
+        <f t="shared" si="9"/>
+        <v>-532.845250344286</v>
       </c>
       <c r="BE13" s="3">
-        <f>BD13*(1+$V$16)</f>
-        <v>1133.3472602908455</v>
+        <f t="shared" si="9"/>
+        <v>-527.51679784084308</v>
       </c>
       <c r="BF13" s="3">
-        <f>BE13*(1+$V$16)</f>
-        <v>1122.0137876879371</v>
+        <f t="shared" si="9"/>
+        <v>-522.24162986243459</v>
       </c>
       <c r="BG13" s="3">
-        <f>BF13*(1+$V$16)</f>
-        <v>1110.7936498110578</v>
+        <f t="shared" si="9"/>
+        <v>-517.01921356381024</v>
       </c>
       <c r="BH13" s="3">
-        <f>BG13*(1+$V$16)</f>
-        <v>1099.6857133129472</v>
+        <f t="shared" si="9"/>
+        <v>-511.84902142817214</v>
       </c>
       <c r="BI13" s="3">
-        <f>BH13*(1+$V$16)</f>
-        <v>1088.6888561798178</v>
+        <f t="shared" si="9"/>
+        <v>-506.7305312138904</v>
       </c>
       <c r="BJ13" s="3">
-        <f>BI13*(1+$V$16)</f>
-        <v>1077.8019676180195</v>
+        <f t="shared" si="9"/>
+        <v>-501.6632259017515</v>
       </c>
       <c r="BK13" s="3">
-        <f>BJ13*(1+$V$16)</f>
-        <v>1067.0239479418392</v>
+        <f t="shared" si="9"/>
+        <v>-496.64659364273399</v>
       </c>
       <c r="BL13" s="3">
-        <f>BK13*(1+$V$16)</f>
-        <v>1056.3537084624209</v>
+        <f t="shared" si="9"/>
+        <v>-491.68012770630662</v>
       </c>
       <c r="BM13" s="3">
-        <f>BL13*(1+$V$16)</f>
-        <v>1045.7901713777967</v>
+        <f t="shared" si="9"/>
+        <v>-486.76332642924353</v>
       </c>
       <c r="BN13" s="3">
-        <f>BM13*(1+$V$16)</f>
-        <v>1035.3322696640187</v>
+        <f t="shared" si="9"/>
+        <v>-481.89569316495107</v>
       </c>
       <c r="BO13" s="3">
-        <f>BN13*(1+$V$16)</f>
-        <v>1024.9789469673785</v>
+        <f t="shared" si="9"/>
+        <v>-477.07673623330157</v>
       </c>
       <c r="BP13" s="3">
-        <f>BO13*(1+$V$16)</f>
-        <v>1014.7291574977047</v>
+        <f t="shared" si="9"/>
+        <v>-472.30596887096857</v>
       </c>
       <c r="BQ13" s="3">
-        <f>BP13*(1+$V$16)</f>
-        <v>1004.5818659227276</v>
+        <f t="shared" si="9"/>
+        <v>-467.5829091822589</v>
       </c>
       <c r="BR13" s="3">
-        <f>BQ13*(1+$V$16)</f>
-        <v>994.53604726350034</v>
+        <f t="shared" si="9"/>
+        <v>-462.9070800904363</v>
       </c>
       <c r="BS13" s="3">
-        <f>BR13*(1+$V$16)</f>
-        <v>984.59068679086533</v>
+        <f t="shared" si="9"/>
+        <v>-458.27800928953195</v>
       </c>
       <c r="BT13" s="3">
-        <f>BS13*(1+$V$16)</f>
-        <v>974.7447799229567</v>
+        <f t="shared" si="9"/>
+        <v>-453.6952291966366</v>
       </c>
       <c r="BU13" s="3">
-        <f>BT13*(1+$V$16)</f>
-        <v>964.99733212372712</v>
+        <f t="shared" si="9"/>
+        <v>-449.15827690467023</v>
       </c>
       <c r="BV13" s="3">
-        <f>BU13*(1+$V$16)</f>
-        <v>955.34735880248979</v>
+        <f t="shared" si="9"/>
+        <v>-444.66669413562352</v>
       </c>
       <c r="BW13" s="3">
-        <f>BV13*(1+$V$16)</f>
-        <v>945.79388521446492</v>
+        <f t="shared" si="9"/>
+        <v>-440.22002719426729</v>
       </c>
       <c r="BX13" s="3">
-        <f>BW13*(1+$V$16)</f>
-        <v>936.33594636232021</v>
+        <f t="shared" si="9"/>
+        <v>-435.81782692232463</v>
       </c>
       <c r="BY13" s="3">
-        <f>BX13*(1+$V$16)</f>
-        <v>926.97258689869705</v>
+        <f t="shared" si="9"/>
+        <v>-431.4596486531014</v>
       </c>
       <c r="BZ13" s="3">
-        <f>BY13*(1+$V$16)</f>
-        <v>917.70286102971011</v>
+        <f t="shared" si="9"/>
+        <v>-427.14505216657039</v>
       </c>
       <c r="CA13" s="3">
-        <f>BZ13*(1+$V$16)</f>
-        <v>908.52583241941295</v>
+        <f t="shared" si="9"/>
+        <v>-422.87360164490468</v>
       </c>
       <c r="CB13" s="3">
-        <f>CA13*(1+$V$16)</f>
-        <v>899.44057409521884</v>
+        <f t="shared" si="9"/>
+        <v>-418.64486562845565</v>
       </c>
       <c r="CC13" s="3">
-        <f>CB13*(1+$V$16)</f>
-        <v>890.44616835426666</v>
+        <f t="shared" si="9"/>
+        <v>-414.45841697217111</v>
       </c>
       <c r="CD13" s="3">
-        <f>CC13*(1+$V$16)</f>
-        <v>881.54170667072401</v>
+        <f t="shared" si="9"/>
+        <v>-410.31383280244938</v>
       </c>
       <c r="CE13" s="3">
-        <f>CD13*(1+$V$16)</f>
-        <v>872.72628960401676</v>
+        <f t="shared" si="9"/>
+        <v>-406.21069447442488</v>
       </c>
       <c r="CF13" s="3">
-        <f>CE13*(1+$V$16)</f>
-        <v>863.99902670797655</v>
+        <f t="shared" ref="CF13:DL13" si="10">CE13*(1+$V$16)</f>
+        <v>-402.14858752968064</v>
       </c>
       <c r="CG13" s="3">
-        <f>CF13*(1+$V$16)</f>
-        <v>855.35903644089683</v>
+        <f t="shared" si="10"/>
+        <v>-398.12710165438381</v>
       </c>
       <c r="CH13" s="3">
-        <f>CG13*(1+$V$16)</f>
-        <v>846.8054460764879</v>
+        <f t="shared" si="10"/>
+        <v>-394.14583063783999</v>
       </c>
       <c r="CI13" s="3">
-        <f>CH13*(1+$V$16)</f>
-        <v>838.33739161572305</v>
+        <f t="shared" si="10"/>
+        <v>-390.20437233146157</v>
       </c>
       <c r="CJ13" s="3">
-        <f>CI13*(1+$V$16)</f>
-        <v>829.95401769956584</v>
+        <f t="shared" si="10"/>
+        <v>-386.30232860814698</v>
       </c>
       <c r="CK13" s="3">
-        <f>CJ13*(1+$V$16)</f>
-        <v>821.65447752257012</v>
+        <f t="shared" si="10"/>
+        <v>-382.43930532206548</v>
       </c>
       <c r="CL13" s="3">
-        <f>CK13*(1+$V$16)</f>
-        <v>813.43793274734446</v>
+        <f t="shared" si="10"/>
+        <v>-378.61491226884482</v>
       </c>
       <c r="CM13" s="3">
-        <f>CL13*(1+$V$16)</f>
-        <v>805.30355341987104</v>
+        <f t="shared" si="10"/>
+        <v>-374.82876314615635</v>
       </c>
       <c r="CN13" s="3">
-        <f>CM13*(1+$V$16)</f>
-        <v>797.25051788567237</v>
+        <f t="shared" si="10"/>
+        <v>-371.0804755146948</v>
       </c>
       <c r="CO13" s="3">
-        <f>CN13*(1+$V$16)</f>
-        <v>789.27801270681562</v>
+        <f t="shared" si="10"/>
+        <v>-367.36967075954783</v>
       </c>
       <c r="CP13" s="3">
-        <f>CO13*(1+$V$16)</f>
-        <v>781.38523257974748</v>
+        <f t="shared" si="10"/>
+        <v>-363.69597405195236</v>
       </c>
       <c r="CQ13" s="3">
-        <f>CP13*(1+$V$16)</f>
-        <v>773.57138025395</v>
+        <f t="shared" si="10"/>
+        <v>-360.05901431143286</v>
       </c>
       <c r="CR13" s="3">
-        <f>CQ13*(1+$V$16)</f>
-        <v>765.83566645141048</v>
+        <f t="shared" si="10"/>
+        <v>-356.45842416831852</v>
       </c>
       <c r="CS13" s="3">
-        <f>CR13*(1+$V$16)</f>
-        <v>758.17730978689633</v>
+        <f t="shared" si="10"/>
+        <v>-352.89383992663534</v>
       </c>
       <c r="CT13" s="3">
-        <f>CS13*(1+$V$16)</f>
-        <v>750.59553668902731</v>
+        <f t="shared" si="10"/>
+        <v>-349.364901527369</v>
       </c>
       <c r="CU13" s="3">
-        <f>CT13*(1+$V$16)</f>
-        <v>743.08958132213706</v>
+        <f t="shared" si="10"/>
+        <v>-345.87125251209528</v>
       </c>
       <c r="CV13" s="3">
-        <f>CU13*(1+$V$16)</f>
-        <v>735.65868550891571</v>
+        <f t="shared" si="10"/>
+        <v>-342.41253998697431</v>
       </c>
       <c r="CW13" s="3">
-        <f>CV13*(1+$V$16)</f>
-        <v>728.30209865382653</v>
+        <f t="shared" si="10"/>
+        <v>-338.98841458710456</v>
       </c>
       <c r="CX13" s="3">
-        <f>CW13*(1+$V$16)</f>
-        <v>721.01907766728823</v>
+        <f t="shared" si="10"/>
+        <v>-335.59853044123349</v>
       </c>
       <c r="CY13" s="3">
-        <f>CX13*(1+$V$16)</f>
-        <v>713.80888689061533</v>
+        <f t="shared" si="10"/>
+        <v>-332.24254513682115</v>
       </c>
       <c r="CZ13" s="3">
-        <f>CY13*(1+$V$16)</f>
-        <v>706.67079802170917</v>
+        <f t="shared" si="10"/>
+        <v>-328.92011968545296</v>
       </c>
       <c r="DA13" s="3">
-        <f>CZ13*(1+$V$16)</f>
-        <v>699.6040900414921</v>
+        <f t="shared" si="10"/>
+        <v>-325.63091848859841</v>
       </c>
       <c r="DB13" s="3">
-        <f>DA13*(1+$V$16)</f>
-        <v>692.60804914107712</v>
+        <f t="shared" si="10"/>
+        <v>-322.37460930371242</v>
       </c>
       <c r="DC13" s="3">
-        <f>DB13*(1+$V$16)</f>
-        <v>685.68196864966637</v>
+        <f t="shared" si="10"/>
+        <v>-319.15086321067531</v>
       </c>
       <c r="DD13" s="3">
-        <f>DC13*(1+$V$16)</f>
-        <v>678.82514896316968</v>
+        <f t="shared" si="10"/>
+        <v>-315.95935457856854</v>
       </c>
       <c r="DE13" s="3">
-        <f>DD13*(1+$V$16)</f>
-        <v>672.03689747353803</v>
+        <f t="shared" si="10"/>
+        <v>-312.79976103278284</v>
       </c>
       <c r="DF13" s="3">
-        <f>DE13*(1+$V$16)</f>
-        <v>665.31652849880265</v>
+        <f t="shared" si="10"/>
+        <v>-309.671763422455</v>
       </c>
       <c r="DG13" s="3">
-        <f>DF13*(1+$V$16)</f>
-        <v>658.66336321381459</v>
+        <f t="shared" si="10"/>
+        <v>-306.57504578823045</v>
       </c>
       <c r="DH13" s="3">
-        <f>DG13*(1+$V$16)</f>
-        <v>652.07672958167643</v>
+        <f t="shared" si="10"/>
+        <v>-303.50929533034815</v>
       </c>
       <c r="DI13" s="3">
-        <f>DH13*(1+$V$16)</f>
-        <v>645.55596228585966</v>
+        <f t="shared" si="10"/>
+        <v>-300.47420237704466</v>
       </c>
       <c r="DJ13" s="3">
-        <f>DI13*(1+$V$16)</f>
-        <v>639.10040266300109</v>
+        <f t="shared" si="10"/>
+        <v>-297.4694603532742</v>
       </c>
       <c r="DK13" s="3">
-        <f>DJ13*(1+$V$16)</f>
-        <v>632.70939863637102</v>
+        <f t="shared" si="10"/>
+        <v>-294.49476574974148</v>
       </c>
       <c r="DL13" s="3">
-        <f>DK13*(1+$V$16)</f>
-        <v>626.38230465000731</v>
+        <f t="shared" si="10"/>
+        <v>-291.54981809224404</v>
       </c>
     </row>
     <row r="14" spans="1:116" x14ac:dyDescent="0.2">
@@ -1999,108 +1994,108 @@
     </row>
     <row r="15" spans="1:116" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="V15" s="25">
+        <v>64</v>
+      </c>
+      <c r="V15" s="22">
         <v>0.02</v>
       </c>
     </row>
     <row r="16" spans="1:116" x14ac:dyDescent="0.2">
       <c r="U16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="V16" s="25">
+        <v>66</v>
+      </c>
+      <c r="V16" s="22">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="26">
+      <c r="B17" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="23">
         <f>O3/N3-1</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="P17" s="26">
-        <f t="shared" ref="P17:S17" si="8">P3/O3-1</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="Q17" s="26">
-        <f t="shared" si="8"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="R17" s="26">
-        <f t="shared" si="8"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="S17" s="26">
-        <f t="shared" si="8"/>
-        <v>4.0000000000000036E-2</v>
+        <v>-1</v>
+      </c>
+      <c r="P17" s="23" t="e">
+        <f t="shared" ref="P17:S17" si="11">P3/O3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q17" s="23" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R17" s="23" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S17" s="23" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="V17" s="25">
+        <v>63</v>
+      </c>
+      <c r="V17" s="22">
         <v>0.08</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O18" s="25">
+        <v>59</v>
+      </c>
+      <c r="O18" s="22">
         <f>O7/N7-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="P18" s="25">
-        <f t="shared" ref="P18:S18" si="9">P7/O7-1</f>
+      <c r="P18" s="22">
+        <f t="shared" ref="P18:S18" si="12">P7/O7-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="Q18" s="25">
-        <f t="shared" si="9"/>
+      <c r="Q18" s="22">
+        <f t="shared" si="12"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="R18" s="25">
-        <f t="shared" si="9"/>
+      <c r="R18" s="22">
+        <f t="shared" si="12"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="S18" s="25">
-        <f t="shared" si="9"/>
+      <c r="S18" s="22">
+        <f t="shared" si="12"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="U18" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="V18" s="24">
-        <f>NPV(V17,O13:XFD13)+'BNT327'!C21+Main!K5-Main!K6</f>
-        <v>40109.132079243369</v>
+      <c r="U18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" s="3">
+        <f>NPV(V17,O13:XFD13)+Main!K5-Main!K6+'BNT327'!E34</f>
+        <v>27086.288535542022</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V19" s="2">
         <f>V18/Main!K3</f>
-        <v>161.73037128727165</v>
+        <v>109.2189053852501</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="V20" s="25">
+      <c r="V20" s="22">
         <f>V19/Main!K2-1</f>
-        <v>0.4369646493760253</v>
+        <v>-2.9596575875165732E-2</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
@@ -2115,7 +2110,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N30" s="3">
         <v>300</v>
@@ -2149,22 +2144,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>20</v>
+      <c r="A1" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2191,22 +2186,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>20</v>
+      <c r="A1" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2219,10 +2214,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324900A3-124A-434A-B7C1-F2607F32C7BF}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2230,16 +2225,17 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>20</v>
+      <c r="A1" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -2247,7 +2243,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2260,17 +2259,17 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2278,38 +2277,202 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+      <c r="C10" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C19" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C25" s="3">
         <f>2000+7600</f>
         <v>9600</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>2025</v>
+      </c>
+      <c r="D28">
+        <f>C28+1</f>
+        <v>2026</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:Q28" si="0">D28+1</f>
+        <v>2027</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f>M31/4</f>
+        <v>4250</v>
+      </c>
+      <c r="F31">
+        <f>E31*1.2</f>
+        <v>5100</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31:L31" si="1">F31*1.2</f>
+        <v>6120</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>7344</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>8812.7999999999993</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>10575.359999999999</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>12690.431999999999</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>15228.518399999997</v>
+      </c>
+      <c r="M31" s="3">
+        <v>17000</v>
+      </c>
+      <c r="N31" s="3">
+        <v>17000</v>
+      </c>
+      <c r="O31" s="3">
+        <v>17000</v>
+      </c>
+      <c r="P31" s="3">
+        <v>17000</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="22">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="24">
+        <f>NPV(E33,C31:M31)*0.5</f>
+        <v>23732.215475148438</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="22">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="22">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2317,5 +2480,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{360386FC-1D3E-4DAD-B13E-E7D39AAD1A07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>